--- a/biology/Zoologie/Coryphodontidae/Coryphodontidae.xlsx
+++ b/biology/Zoologie/Coryphodontidae/Coryphodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathmodontidae · Coryphodontidés
 Les Coryphodontidae, en français coryphodontidés, forment une famille fossile de mammifères pantodontes ayant vécu durant la fin du Paléocène jusqu'à la fin de l'Éocène, il y a environ entre 58,7 et 34 Ma (millions d'années).
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Coryphodontidae est décrite en 1876 pa le paléontologue américain Othniel Charles Marsh[1],[2].
-Synonymes
-Selon Paleobiology Database en 2023, cette famille a un synonyme décrit en 1873 par le paléontologue américain Cope (1840-1897)[2] :
-†Bathmodontidae Cope, 1873[2].
-Fossiles
-Selon Paleobiology Database en 2023, cette famille a 504 collections de fossiles pour 530 occurrences[2] :
-Éocène, 446 collections ;
-Paléocène, une collection en Chine, 57 collections aux États-Unis, au Colorado, Montana et Wyoming[2].
-Ceci atteste la présence de cette famille du Thanétien du Paléocène supérieur à l'Éocène supérieur, soit de 58,7 et 33,9 Ma avant notre ère[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Coryphodontidae est décrite en 1876 pa le paléontologue américain Othniel Charles Marsh,.
 </t>
         </is>
       </c>
@@ -548,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'étaient des plantigrades à cinq doigts, au corps massif, herbivores à la vie semi-aquatique.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, cette famille a un synonyme décrit en 1873 par le paléontologue américain Cope (1840-1897) :
+†Bathmodontidae Cope, 1873.</t>
         </is>
       </c>
     </row>
@@ -579,10 +591,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, cette famille a 504 collections de fossiles pour 530 occurrences :
+Éocène, 446 collections ;
+Paléocène, une collection en Chine, 57 collections aux États-Unis, au Colorado, Montana et Wyoming.
+Ceci atteste la présence de cette famille du Thanétien du Paléocène supérieur à l'Éocène supérieur, soit de 58,7 et 33,9 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coryphodontidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coryphodontidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'étaient des plantigrades à cinq doigts, au corps massif, herbivores à la vie semi-aquatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coryphodontidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coryphodontidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>† Asiocoryphodon, Xu, 1976
 † Coryphodon, Owen, 1845
